--- a/Documentation/Gantt Chart/Gantt Chart - Fabio's Draft Plan_V2.xlsx
+++ b/Documentation/Gantt Chart/Gantt Chart - Fabio's Draft Plan_V2.xlsx
@@ -27,12 +27,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>DESCRIPTION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter Your Project Details Here </t>
   </si>
   <si>
     <t>START DATE</t>
@@ -48,9 +45,6 @@
   </si>
   <si>
     <t>Planning Achitecture</t>
-  </si>
-  <si>
-    <t>Install and Configure enviroment</t>
   </si>
   <si>
     <t>POC Presentation</t>
@@ -78,6 +72,18 @@
   </si>
   <si>
     <t>Coding</t>
+  </si>
+  <si>
+    <t>Configure MYSQL/JPA/Spring/Gradle</t>
+  </si>
+  <si>
+    <t>Configuring Node/Angular</t>
+  </si>
+  <si>
+    <t>Interim Project Presentation</t>
+  </si>
+  <si>
+    <t>Ger's Garage</t>
   </si>
 </sst>
 </file>
@@ -167,7 +173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -208,6 +214,7 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -253,7 +260,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.20259019388824326"/>
+          <c:y val="8.6740522130730524E-2"/>
+          <c:w val="0.76896195450593396"/>
+          <c:h val="0.90952038307173411"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="stacked"/>
@@ -263,7 +280,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Gantt Chart'!$B$2</c:f>
+              <c:f>'Gantt Chart'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -273,18 +290,106 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:noFill/>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Gantt Chart'!$D$3:$D$15</c:f>
+              <c:f>'Gantt Chart'!$C$3:$C$16</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>Planning Achitecture</c:v>
                 </c:pt>
@@ -292,7 +397,7 @@
                   <c:v>Studying technologies and frameworks</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Install and Configure enviroment</c:v>
+                  <c:v>Configure MYSQL/JPA/Spring/Gradle</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Create ER Diagram</c:v>
@@ -304,24 +409,27 @@
                   <c:v>Creating a prototype</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Install and Configure enviroment</c:v>
+                  <c:v>Configuring Node/Angular</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>Interim Project Presentation</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Coding</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>JPA and DB Integration and MAP</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>Angular and Java Integration</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>POC Test</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>Eventual fixes and implementations</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>POC Presentation</c:v>
                 </c:pt>
               </c:strCache>
@@ -329,10 +437,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Gantt Chart'!$B$3:$B$15</c:f>
+              <c:f>'Gantt Chart'!$A$3:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>43991</c:v>
                 </c:pt>
@@ -352,24 +460,27 @@
                   <c:v>44003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44005</c:v>
+                  <c:v>44022</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>44023</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>44007</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>44010</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44018</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>44018</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>44018</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>44022</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>44025</c:v>
                 </c:pt>
               </c:numCache>
@@ -386,7 +497,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Gantt Chart'!$E$1:$E$2</c:f>
+              <c:f>'Gantt Chart'!$D$1:$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -396,20 +507,106 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Gantt Chart'!$D$3:$D$15</c:f>
+              <c:f>'Gantt Chart'!$C$3:$C$16</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>Planning Achitecture</c:v>
                 </c:pt>
@@ -417,7 +614,7 @@
                   <c:v>Studying technologies and frameworks</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Install and Configure enviroment</c:v>
+                  <c:v>Configure MYSQL/JPA/Spring/Gradle</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Create ER Diagram</c:v>
@@ -429,24 +626,27 @@
                   <c:v>Creating a prototype</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Install and Configure enviroment</c:v>
+                  <c:v>Configuring Node/Angular</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>Interim Project Presentation</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Coding</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>JPA and DB Integration and MAP</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>Angular and Java Integration</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>POC Test</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>Eventual fixes and implementations</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>POC Presentation</c:v>
                 </c:pt>
               </c:strCache>
@@ -454,10 +654,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Gantt Chart'!$E$3:$E$15</c:f>
+              <c:f>'Gantt Chart'!$D$3:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
@@ -477,24 +677,27 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
@@ -507,8 +710,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -516,11 +720,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="329267624"/>
-        <c:axId val="328900984"/>
+        <c:axId val="328874056"/>
+        <c:axId val="328874448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="329267624"/>
+        <c:axId val="328874056"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -532,11 +736,11 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -550,9 +754,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -563,7 +766,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="328900984"/>
+        <c:crossAx val="328874448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -571,21 +774,21 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="328900984"/>
+        <c:axId val="328874448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="44063"/>
-          <c:min val="43991"/>
+          <c:max val="44057"/>
+          <c:min val="43983"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="t"/>
+        <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -611,9 +814,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -624,8 +826,8 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="329267624"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="328874056"/>
+        <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5"/>
       </c:valAx>
@@ -642,17 +844,28 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -715,35 +928,33 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="304">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -751,26 +962,34 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
     </cs:spPr>
     <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
@@ -779,9 +998,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -800,14 +1018,6 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -816,20 +1026,20 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -838,13 +1048,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -856,10 +1066,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -868,16 +1078,17 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -895,21 +1106,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -928,14 +1136,13 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -947,14 +1154,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -968,9 +1175,8 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -984,12 +1190,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -1001,9 +1201,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1018,108 +1218,115 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1131,12 +1338,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1152,7 +1366,6 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1161,9 +1374,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1179,14 +1391,13 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1195,9 +1406,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1209,12 +1419,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1223,23 +1427,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>16933</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>16933</xdr:rowOff>
+      <xdr:rowOff>9878</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>528189</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>296333</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1220613</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1526,43 +1730,42 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="B1:R16"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.1796875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" style="2"/>
-    <col min="7" max="7" width="16.81640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="3.81640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13" style="2" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="9.81640625" style="2" customWidth="1"/>
-    <col min="11" max="12" width="10.1796875" style="2"/>
-    <col min="13" max="13" width="20.1796875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="10.1796875" style="2"/>
-    <col min="15" max="15" width="14.54296875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="25.81640625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="10.1796875" style="2" customWidth="1"/>
-    <col min="18" max="18" width="8.81640625" style="2" customWidth="1"/>
-    <col min="19" max="16384" width="10.1796875" style="2"/>
+    <col min="1" max="1" width="11.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.1796875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.1796875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.81640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="3.81640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13" style="2" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9.81640625" style="2" customWidth="1"/>
+    <col min="10" max="11" width="10.1796875" style="2"/>
+    <col min="12" max="12" width="20.1796875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="10.1796875" style="2"/>
+    <col min="14" max="14" width="14.54296875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="25.81640625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="6.54296875" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="10.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="20.5" x14ac:dyDescent="0.35">
-      <c r="B1" s="14" t="s">
-        <v>1</v>
-      </c>
+    <row r="1" spans="1:16" ht="20.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="14"/>
       <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="15" t="s">
-        <v>4</v>
-      </c>
+      <c r="D1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -1574,20 +1777,19 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -1599,23 +1801,22 @@
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" s="9">
+        <v>43991</v>
+      </c>
       <c r="B3" s="9">
-        <v>43991</v>
-      </c>
-      <c r="C3" s="9">
         <v>43995</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="7">
-        <f>DAYS360(B3,C3,FALSE)</f>
+      <c r="C3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="7">
+        <f>DAYS360(A3,B3,FALSE)</f>
         <v>4</v>
       </c>
+      <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -1627,23 +1828,22 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="2:18" ht="25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="25" x14ac:dyDescent="0.35">
+      <c r="A4" s="10">
+        <v>43997</v>
+      </c>
       <c r="B4" s="10">
-        <v>43997</v>
-      </c>
-      <c r="C4" s="10">
         <v>44000</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="7">
-        <f t="shared" ref="E4:E10" si="0">DAYS360(B4,C4,FALSE)</f>
+      <c r="C4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="7">
+        <f t="shared" ref="D4:D11" si="0">DAYS360(A4,B4,FALSE)</f>
         <v>3</v>
       </c>
+      <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -1655,23 +1855,22 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" ht="25" x14ac:dyDescent="0.35">
+      <c r="A5" s="12">
+        <v>43997</v>
+      </c>
       <c r="B5" s="12">
-        <v>43997</v>
-      </c>
-      <c r="C5" s="12">
         <v>43999</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="7">
-        <f t="shared" ref="E5" si="1">DAYS360(B5,C5,FALSE)</f>
+      <c r="C5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="7">
+        <f t="shared" ref="D5" si="1">DAYS360(A5,B5,FALSE)</f>
         <v>2</v>
       </c>
+      <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -1683,23 +1882,22 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6" s="12">
+        <v>44001</v>
+      </c>
       <c r="B6" s="12">
-        <v>44001</v>
-      </c>
-      <c r="C6" s="12">
         <v>44003</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="7">
+      <c r="C6" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
+      <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -1711,23 +1909,22 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7" s="10">
+        <v>44003</v>
+      </c>
       <c r="B7" s="10">
-        <v>44003</v>
-      </c>
-      <c r="C7" s="10">
         <v>44004</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="7">
+      <c r="C7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -1739,23 +1936,22 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A8" s="12">
+        <v>44003</v>
+      </c>
       <c r="B8" s="12">
-        <v>44003</v>
-      </c>
-      <c r="C8" s="12">
         <v>44017</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="7">
+      <c r="C8" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="7">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
+      <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -1767,23 +1963,22 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A9" s="12">
+        <v>44022</v>
+      </c>
       <c r="B9" s="12">
-        <v>44005</v>
-      </c>
-      <c r="C9" s="12">
-        <v>44007</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="7">
+        <v>44023</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="7">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -1795,23 +1990,22 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B10" s="10">
-        <v>44007</v>
-      </c>
-      <c r="C10" s="10">
-        <v>44058</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="7">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A10" s="12">
+        <v>44023</v>
+      </c>
+      <c r="B10" s="12">
+        <v>44024</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="7">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -1823,23 +2017,22 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B11" s="12">
-        <v>44010</v>
-      </c>
-      <c r="C11" s="12">
-        <v>44018</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="7">
-        <f>DAYS360(B11,C11,FALSE)</f>
-        <v>8</v>
-      </c>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A11" s="10">
+        <v>44007</v>
+      </c>
+      <c r="B11" s="10">
+        <v>44058</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="7">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -1851,23 +2044,22 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B12" s="10">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A12" s="12">
+        <v>44010</v>
+      </c>
+      <c r="B12" s="12">
         <v>44018</v>
       </c>
-      <c r="C12" s="10">
-        <v>44033</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="7">
-        <f>DAYS360(B12,C12,FALSE)</f>
-        <v>15</v>
-      </c>
+      <c r="C12" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="7">
+        <f>DAYS360(A12,B12,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -1879,23 +2071,22 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A13" s="10">
+        <v>44018</v>
+      </c>
       <c r="B13" s="10">
-        <v>44018</v>
-      </c>
-      <c r="C13" s="10">
-        <v>44022</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="7">
-        <f>DAYS360(B13,C13,FALSE)</f>
-        <v>4</v>
-      </c>
+        <v>44033</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="7">
+        <f>DAYS360(A13,B13,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -1907,23 +2098,22 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
     </row>
-    <row r="14" spans="2:18" ht="25" x14ac:dyDescent="0.35">
-      <c r="B14" s="12">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A14" s="10">
+        <v>44018</v>
+      </c>
+      <c r="B14" s="10">
         <v>44022</v>
       </c>
-      <c r="C14" s="12">
-        <v>44024</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="7">
-        <f>DAYS360(B14,C14,FALSE)</f>
-        <v>2</v>
-      </c>
+      <c r="C14" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="7">
+        <f>DAYS360(A14,B14,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -1935,23 +2125,22 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B15" s="10">
-        <v>44025</v>
-      </c>
-      <c r="C15" s="10">
-        <v>44031</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="7">
-        <f>DAYS360(B15,C15,FALSE)</f>
-        <v>6</v>
-      </c>
+    <row r="15" spans="1:16" ht="25" x14ac:dyDescent="0.35">
+      <c r="A15" s="12">
+        <v>44022</v>
+      </c>
+      <c r="B15" s="12">
+        <v>44024</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="7">
+        <f>DAYS360(A15,B15,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -1963,17 +2152,45 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A16" s="10">
+        <v>44025</v>
+      </c>
+      <c r="B16" s="10">
+        <v>44031</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="7">
+        <f>DAYS360(A16,B16,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="O20" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/Documentation/Gantt Chart/Gantt Chart - Fabio's Draft Plan_V2.xlsx
+++ b/Documentation/Gantt Chart/Gantt Chart - Fabio's Draft Plan_V2.xlsx
@@ -26,8 +26,43 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="E17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>DESCRIPTION</t>
   </si>
@@ -47,9 +82,6 @@
     <t>Planning Achitecture</t>
   </si>
   <si>
-    <t>POC Presentation</t>
-  </si>
-  <si>
     <t>Studying technologies and frameworks</t>
   </si>
   <si>
@@ -60,9 +92,6 @@
   </si>
   <si>
     <t>Creating a prototype</t>
-  </si>
-  <si>
-    <t>POC Test</t>
   </si>
   <si>
     <t>Eventual fixes and implementations</t>
@@ -85,12 +114,24 @@
   <si>
     <t>Ger's Garage</t>
   </si>
+  <si>
+    <t>Final Report</t>
+  </si>
+  <si>
+    <t>Create Front-end Pages (Workflow)</t>
+  </si>
+  <si>
+    <t>TASK START DAY</t>
+  </si>
+  <si>
+    <t>TASK DURATION (DAYS)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,8 +163,30 @@
       <name val="Century Gothic"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -160,6 +223,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6600"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -173,7 +248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -193,9 +268,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -208,13 +280,29 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -223,13 +311,13 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF6600"/>
       <color rgb="FF4F6228"/>
       <color rgb="FFA03912"/>
       <color rgb="FFD24626"/>
       <color rgb="FF777777"/>
       <color rgb="FF30966D"/>
       <color rgb="FFD24726"/>
-      <color rgb="FFFF6600"/>
       <color rgb="FF52B161"/>
     </mruColors>
   </colors>
@@ -424,13 +512,13 @@
                   <c:v>Angular and Java Integration</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>POC Test</c:v>
+                  <c:v>Create Front-end Pages (Workflow)</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Eventual fixes and implementations</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>POC Presentation</c:v>
+                  <c:v>Final Report</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -475,13 +563,13 @@
                   <c:v>44018</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44018</c:v>
+                  <c:v>44033</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44022</c:v>
+                  <c:v>44057</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44025</c:v>
+                  <c:v>44055</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -641,13 +729,13 @@
                   <c:v>Angular and Java Integration</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>POC Test</c:v>
+                  <c:v>Create Front-end Pages (Workflow)</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Eventual fixes and implementations</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>POC Presentation</c:v>
+                  <c:v>Final Report</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -692,13 +780,13 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -720,11 +808,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="328874056"/>
-        <c:axId val="328874448"/>
+        <c:axId val="359454416"/>
+        <c:axId val="359452848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="328874056"/>
+        <c:axId val="359454416"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -766,7 +854,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="328874448"/>
+        <c:crossAx val="359452848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -774,7 +862,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="328874448"/>
+        <c:axId val="359452848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="44057"/>
@@ -826,7 +914,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="328874056"/>
+        <c:crossAx val="359454416"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5"/>
@@ -1434,7 +1522,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>1220613</xdr:colOff>
+      <xdr:colOff>635000</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -1443,7 +1531,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1726,23 +1814,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.1796875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.1796875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="30.453125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.36328125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" style="2" customWidth="1"/>
     <col min="6" max="6" width="16.81640625" style="2" customWidth="1"/>
     <col min="7" max="7" width="3.81640625" style="2" customWidth="1"/>
     <col min="8" max="8" width="13" style="2" hidden="1" customWidth="1"/>
@@ -1758,7 +1846,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="20.5" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -1802,390 +1890,228 @@
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3" s="9">
+    <row r="3" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="16">
         <v>43991</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="16">
         <v>43995</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="17" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="7">
         <f>DAYS360(A3,B3,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="25" x14ac:dyDescent="0.35">
-      <c r="A4" s="10">
+    <row r="4" spans="1:16" s="1" customFormat="1" ht="25" x14ac:dyDescent="0.35">
+      <c r="A4" s="9">
         <v>43997</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="9">
         <v>44000</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="7">
+      <c r="C4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="19">
         <f t="shared" ref="D4:D11" si="0">DAYS360(A4,B4,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="25" x14ac:dyDescent="0.35">
-      <c r="A5" s="12">
+    <row r="5" spans="1:16" s="18" customFormat="1" ht="25" x14ac:dyDescent="0.35">
+      <c r="A5" s="11">
         <v>43997</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="11">
         <v>43999</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>15</v>
+      <c r="C5" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="D5" s="7">
         <f t="shared" ref="D5" si="1">DAYS360(A5,B5,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A6" s="12">
+    <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="9">
         <v>44001</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="9">
         <v>44003</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="19">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A7" s="10">
+    <row r="7" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="11">
         <v>44003</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="11">
         <v>44004</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>8</v>
+      <c r="C7" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="D7" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A8" s="12">
+    <row r="8" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="9">
         <v>44003</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="9">
         <v>44017</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="7">
+      <c r="C8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="19">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A9" s="12">
+    <row r="9" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="11">
         <v>44022</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="11">
         <v>44023</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>16</v>
+      <c r="C9" s="12" t="s">
+        <v>14</v>
       </c>
       <c r="D9" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A10" s="12">
+    <row r="10" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="9">
         <v>44023</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="9">
         <v>44024</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="7">
+      <c r="C10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A11" s="10">
+    <row r="11" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="11">
         <v>44007</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="11">
         <v>44058</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>14</v>
+      <c r="C11" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="D11" s="7">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A12" s="12">
+    <row r="12" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="9">
         <v>44010</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="9">
         <v>44018</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="7">
+      <c r="C12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="19">
         <f>DAYS360(A12,B12,FALSE)</f>
         <v>8</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A13" s="10">
+    <row r="13" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="11">
         <v>44018</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="11">
         <v>44033</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>9</v>
+      <c r="C13" s="12" t="s">
+        <v>8</v>
       </c>
       <c r="D13" s="7">
         <f>DAYS360(A13,B13,FALSE)</f>
         <v>15</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A14" s="10">
-        <v>44018</v>
-      </c>
-      <c r="B14" s="10">
-        <v>44022</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="7">
+    <row r="14" spans="1:16" s="1" customFormat="1" ht="25" x14ac:dyDescent="0.35">
+      <c r="A14" s="9">
+        <v>44033</v>
+      </c>
+      <c r="B14" s="9">
+        <v>44055</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="19">
         <f>DAYS360(A14,B14,FALSE)</f>
-        <v>4</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
+        <v>21</v>
+      </c>
     </row>
-    <row r="15" spans="1:16" ht="25" x14ac:dyDescent="0.35">
-      <c r="A15" s="12">
-        <v>44022</v>
-      </c>
-      <c r="B15" s="12">
-        <v>44024</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>12</v>
+    <row r="15" spans="1:16" s="18" customFormat="1" ht="25" x14ac:dyDescent="0.35">
+      <c r="A15" s="11">
+        <v>44057</v>
+      </c>
+      <c r="B15" s="11">
+        <v>44058</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="D15" s="7">
         <f>DAYS360(A15,B15,FALSE)</f>
-        <v>2</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A16" s="10">
-        <v>44025</v>
-      </c>
-      <c r="B16" s="10">
-        <v>44031</v>
+    <row r="16" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="9">
+        <v>44055</v>
+      </c>
+      <c r="B16" s="9">
+        <v>44058</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="7">
+        <v>17</v>
+      </c>
+      <c r="D16" s="19">
         <f>DAYS360(A16,B16,FALSE)</f>
-        <v>6</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
+        <v>3</v>
+      </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
+      <c r="E17" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="O20" s="16"/>
+      <c r="O20" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2195,5 +2121,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>